--- a/JOHN_TYER.xlsx
+++ b/JOHN_TYER.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
     <t xml:space="preserve">Delivery</t>
   </si>
@@ -47,6 +47,9 @@
     <t xml:space="preserve">Breed</t>
   </si>
   <si>
+    <t xml:space="preserve">3bMonday</t>
+  </si>
+  <si>
     <t xml:space="preserve">2bMonday</t>
   </si>
   <si>
@@ -95,9 +98,81 @@
     <t xml:space="preserve">MWF</t>
   </si>
   <si>
+    <t xml:space="preserve">Batch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Farm 21471 Farrowing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SR 1700, 362 SARECTA RD, KENANSVILLE, NC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HP-East Commercial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TYER, JOHN W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPG240</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.21875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Farm 21491 Farrowing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">910-293-3323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SR 1108, 903 CARROLLS RD, WARSAW, NC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.16527777777777777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THS</t>
+  </si>
+  <si>
     <t xml:space="preserve">Weekly</t>
   </si>
   <si>
+    <t xml:space="preserve">Farm 27041 Farrowing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">910-293-3139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">605 CARROLLS RD, WARSAW, NC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSM SPG240</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.34861111111111115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Farm 27061 Farrowing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">910-293-2939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">723 CARROLLS RD, WARSAW, NC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.27013888888888887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Farm 31121 Farrowing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SR 1900, 1330 LANEFIELD RD, WARSAW, NC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14652777777777778</t>
+  </si>
+  <si>
     <t xml:space="preserve">Maple Hill Sow Farm 2745</t>
   </si>
   <si>
@@ -107,19 +182,37 @@
     <t xml:space="preserve">1735 MURPHY HONOUR RD, MAPLE HILL, NC</t>
   </si>
   <si>
-    <t xml:space="preserve">SHP-Central</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TYER, JOHN W.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">910-271-3609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPG240</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.19305555555555554</t>
+    <t xml:space="preserve">0.39444444444444443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Farm 6179 Stoneybrook Farrow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5707 WILLARD ROAD, WILLARD, NC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.16319444444444445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Farm 34251 Farrowing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">252-224-0313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">441A BLACK SWAMP TRAIL, POLLOCKSVILLE, NC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PICL02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.2722222222222222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FARM 3135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">937 Tuckahoe road Atkinson, NC 28421</t>
   </si>
 </sst>
 </file>
@@ -456,34 +549,35 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
     <col min="1" max="1" width="8.71" hidden="0" customWidth="1"/>
     <col min="2" max="2" width="10.71" hidden="0" customWidth="1"/>
     <col min="3" max="3" width="14.71" hidden="0" customWidth="1"/>
-    <col min="4" max="4" width="24.71" hidden="0" customWidth="1"/>
+    <col min="4" max="4" width="28.71" hidden="0" customWidth="1"/>
     <col min="5" max="5" width="17.71" hidden="0" customWidth="1"/>
     <col min="6" max="6" width="12.71" hidden="0" customWidth="1"/>
-    <col min="7" max="7" width="37.71" hidden="0" customWidth="1"/>
-    <col min="8" max="8" width="12.71" hidden="0" customWidth="1"/>
-    <col min="9" max="9" width="13.71" hidden="0" customWidth="1"/>
+    <col min="7" max="7" width="41.71" hidden="0" customWidth="1"/>
+    <col min="8" max="8" width="18.71" hidden="0" customWidth="1"/>
+    <col min="9" max="9" width="12.71" hidden="0" customWidth="1"/>
     <col min="10" max="10" width="16.71" hidden="0" customWidth="1"/>
-    <col min="11" max="11" width="6.71" hidden="0" customWidth="1"/>
+    <col min="11" max="11" width="10.71" hidden="0" customWidth="1"/>
     <col min="12" max="12" width="8.71" hidden="0" customWidth="1"/>
-    <col min="13" max="13" width="9.71" hidden="0" customWidth="1"/>
+    <col min="13" max="13" width="8.71" hidden="0" customWidth="1"/>
     <col min="14" max="14" width="9.71" hidden="0" customWidth="1"/>
-    <col min="15" max="15" width="11.71" hidden="0" customWidth="1"/>
+    <col min="15" max="15" width="9.71" hidden="0" customWidth="1"/>
     <col min="16" max="16" width="11.71" hidden="0" customWidth="1"/>
-    <col min="17" max="17" width="10.71" hidden="0" customWidth="1"/>
+    <col min="17" max="17" width="11.71" hidden="0" customWidth="1"/>
     <col min="18" max="18" width="10.71" hidden="0" customWidth="1"/>
-    <col min="19" max="19" width="8.71" hidden="0" customWidth="1"/>
+    <col min="19" max="19" width="10.71" hidden="0" customWidth="1"/>
     <col min="20" max="20" width="8.71" hidden="0" customWidth="1"/>
-    <col min="21" max="21" width="10.71" hidden="0" customWidth="1"/>
+    <col min="21" max="21" width="8.71" hidden="0" customWidth="1"/>
     <col min="22" max="22" width="10.71" hidden="0" customWidth="1"/>
-    <col min="23" max="23" width="5.71" hidden="0" customWidth="1"/>
-    <col min="24" max="24" width="11.71" hidden="0" customWidth="1"/>
-    <col min="25" max="25" width="19.71" hidden="0" customWidth="1"/>
-    <col min="26" max="26" width="8.71" hidden="0" customWidth="1"/>
+    <col min="23" max="23" width="10.71" hidden="0" customWidth="1"/>
+    <col min="24" max="24" width="5.71" hidden="0" customWidth="1"/>
+    <col min="25" max="25" width="11.71" hidden="0" customWidth="1"/>
+    <col min="26" max="26" width="19.71" hidden="0" customWidth="1"/>
+    <col min="27" max="27" width="8.71" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -565,26 +659,27 @@
       <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B2" t="n">
-        <v>7094</v>
+        <v>7093</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E2" t="n">
-        <v>2745</v>
-      </c>
-      <c r="F2" t="s">
-        <v>29</v>
-      </c>
+        <v>21471</v>
+      </c>
+      <c r="F2"/>
       <c r="G2" t="s">
         <v>30</v>
       </c>
@@ -594,39 +689,636 @@
       <c r="I2" t="s">
         <v>32</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2"/>
+      <c r="K2" t="s">
         <v>33</v>
       </c>
-      <c r="K2" t="s">
-        <v>34</v>
-      </c>
-      <c r="L2" t="n">
-        <v>170</v>
-      </c>
-      <c r="M2"/>
+      <c r="L2"/>
+      <c r="M2" t="n">
+        <v>30</v>
+      </c>
       <c r="N2"/>
       <c r="O2"/>
-      <c r="P2" t="n">
-        <v>50</v>
-      </c>
-      <c r="Q2"/>
+      <c r="P2"/>
+      <c r="Q2" t="n">
+        <v>35</v>
+      </c>
       <c r="R2"/>
       <c r="S2"/>
-      <c r="T2" t="n">
-        <v>390</v>
-      </c>
-      <c r="U2"/>
+      <c r="T2"/>
+      <c r="U2" t="n">
+        <v>365</v>
+      </c>
       <c r="V2"/>
-      <c r="W2" t="n">
-        <v>610</v>
-      </c>
+      <c r="W2"/>
       <c r="X2" t="n">
-        <v>1.87116564417178</v>
-      </c>
-      <c r="Y2" t="s">
+        <v>430</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>23.8888888888889</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA2"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="n">
+        <v>7094</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" t="s">
         <v>35</v>
       </c>
-      <c r="Z2"/>
+      <c r="E3" t="n">
+        <v>21491</v>
+      </c>
+      <c r="F3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3"/>
+      <c r="K3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3"/>
+      <c r="M3" t="n">
+        <v>20</v>
+      </c>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="Q3" t="n">
+        <v>60</v>
+      </c>
+      <c r="R3"/>
+      <c r="S3"/>
+      <c r="T3"/>
+      <c r="U3" t="n">
+        <v>370</v>
+      </c>
+      <c r="V3"/>
+      <c r="W3"/>
+      <c r="X3" t="n">
+        <v>450</v>
+      </c>
+      <c r="Y3"/>
+      <c r="Z3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA3"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" t="n">
+        <v>7069</v>
+      </c>
+      <c r="C4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" t="n">
+        <v>27041</v>
+      </c>
+      <c r="F4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4"/>
+      <c r="K4" t="s">
+        <v>44</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4"/>
+      <c r="R4"/>
+      <c r="S4"/>
+      <c r="T4" t="n">
+        <v>164</v>
+      </c>
+      <c r="U4"/>
+      <c r="V4"/>
+      <c r="W4"/>
+      <c r="X4" t="n">
+        <v>164</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>1.53271028037383</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" t="n">
+        <v>7069</v>
+      </c>
+      <c r="C5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" t="n">
+        <v>27041</v>
+      </c>
+      <c r="F5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5"/>
+      <c r="K5" t="s">
+        <v>44</v>
+      </c>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5" t="n">
+        <v>34</v>
+      </c>
+      <c r="P5"/>
+      <c r="Q5"/>
+      <c r="R5"/>
+      <c r="S5" t="n">
+        <v>94</v>
+      </c>
+      <c r="T5"/>
+      <c r="U5"/>
+      <c r="V5"/>
+      <c r="W5" t="n">
+        <v>50</v>
+      </c>
+      <c r="X5" t="n">
+        <v>178</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>1.66355140186916</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA5"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" t="n">
+        <v>7069</v>
+      </c>
+      <c r="C6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" t="n">
+        <v>27061</v>
+      </c>
+      <c r="F6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6"/>
+      <c r="K6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6" t="n">
+        <v>16</v>
+      </c>
+      <c r="P6"/>
+      <c r="Q6"/>
+      <c r="R6"/>
+      <c r="S6" t="n">
+        <v>74</v>
+      </c>
+      <c r="T6"/>
+      <c r="U6"/>
+      <c r="V6"/>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>90</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>1.36363636363636</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA6"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" t="n">
+        <v>7069</v>
+      </c>
+      <c r="C7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" t="n">
+        <v>27061</v>
+      </c>
+      <c r="F7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7"/>
+      <c r="K7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7"/>
+      <c r="U7"/>
+      <c r="V7"/>
+      <c r="W7" t="n">
+        <v>30</v>
+      </c>
+      <c r="X7" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0.454545454545455</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA7"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" t="n">
+        <v>7081</v>
+      </c>
+      <c r="C8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" t="n">
+        <v>31121</v>
+      </c>
+      <c r="F8"/>
+      <c r="G8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H8" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8"/>
+      <c r="K8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L8"/>
+      <c r="M8"/>
+      <c r="N8"/>
+      <c r="O8" t="n">
+        <v>15</v>
+      </c>
+      <c r="P8"/>
+      <c r="Q8"/>
+      <c r="R8"/>
+      <c r="S8" t="n">
+        <v>20</v>
+      </c>
+      <c r="T8"/>
+      <c r="U8"/>
+      <c r="V8"/>
+      <c r="W8" t="n">
+        <v>175</v>
+      </c>
+      <c r="X8" t="n">
+        <v>210</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA8"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7068</v>
+      </c>
+      <c r="C9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2745</v>
+      </c>
+      <c r="F9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" t="s">
+        <v>55</v>
+      </c>
+      <c r="H9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9"/>
+      <c r="K9" t="s">
+        <v>33</v>
+      </c>
+      <c r="L9"/>
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9" t="n">
+        <v>100</v>
+      </c>
+      <c r="P9"/>
+      <c r="Q9"/>
+      <c r="R9"/>
+      <c r="S9" t="n">
+        <v>60</v>
+      </c>
+      <c r="T9"/>
+      <c r="U9"/>
+      <c r="V9"/>
+      <c r="W9" t="n">
+        <v>320</v>
+      </c>
+      <c r="X9" t="n">
+        <v>480</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>2.63736263736264</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA9"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" t="n">
+        <v>7094</v>
+      </c>
+      <c r="C10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" t="n">
+        <v>6179</v>
+      </c>
+      <c r="F10"/>
+      <c r="G10" t="s">
+        <v>58</v>
+      </c>
+      <c r="H10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10"/>
+      <c r="K10" t="s">
+        <v>33</v>
+      </c>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10" t="n">
+        <v>125</v>
+      </c>
+      <c r="O10"/>
+      <c r="P10"/>
+      <c r="Q10"/>
+      <c r="R10" t="n">
+        <v>115</v>
+      </c>
+      <c r="S10"/>
+      <c r="T10"/>
+      <c r="U10"/>
+      <c r="V10" t="n">
+        <v>260</v>
+      </c>
+      <c r="W10"/>
+      <c r="X10" t="n">
+        <v>500</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>2.32558139534884</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA10"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" t="n">
+        <v>7069</v>
+      </c>
+      <c r="C11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" t="n">
+        <v>34251</v>
+      </c>
+      <c r="F11" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" t="s">
+        <v>62</v>
+      </c>
+      <c r="H11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I11" t="s">
+        <v>32</v>
+      </c>
+      <c r="J11"/>
+      <c r="K11" t="s">
+        <v>63</v>
+      </c>
+      <c r="L11"/>
+      <c r="M11"/>
+      <c r="N11"/>
+      <c r="O11" t="n">
+        <v>80</v>
+      </c>
+      <c r="P11"/>
+      <c r="Q11"/>
+      <c r="R11"/>
+      <c r="S11" t="n">
+        <v>20</v>
+      </c>
+      <c r="T11"/>
+      <c r="U11"/>
+      <c r="V11"/>
+      <c r="W11" t="n">
+        <v>80</v>
+      </c>
+      <c r="X11" t="n">
+        <v>180</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>2.06896551724138</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA11"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" t="n">
+        <v>7068</v>
+      </c>
+      <c r="C12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" t="n">
+        <v>31351</v>
+      </c>
+      <c r="F12"/>
+      <c r="G12" t="s">
+        <v>66</v>
+      </c>
+      <c r="H12" t="s">
+        <v>31</v>
+      </c>
+      <c r="I12" t="s">
+        <v>32</v>
+      </c>
+      <c r="J12"/>
+      <c r="K12" t="s">
+        <v>33</v>
+      </c>
+      <c r="L12"/>
+      <c r="M12"/>
+      <c r="N12"/>
+      <c r="O12" t="n">
+        <v>45</v>
+      </c>
+      <c r="P12"/>
+      <c r="Q12"/>
+      <c r="R12"/>
+      <c r="S12" t="n">
+        <v>45</v>
+      </c>
+      <c r="T12"/>
+      <c r="U12"/>
+      <c r="V12"/>
+      <c r="W12" t="n">
+        <v>90</v>
+      </c>
+      <c r="X12" t="n">
+        <v>180</v>
+      </c>
+      <c r="Y12"/>
+      <c r="Z12"/>
+      <c r="AA12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
